--- a/CashFlow/BKR_cashflow.xlsx
+++ b/CashFlow/BKR_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>13594000000.0</v>
+        <v>4241000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>18040000000.0</v>
+        <v>-80000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>13743000000.0</v>
+        <v>-59000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>9253000000.0</v>
+        <v>-172000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4554000000.0</v>
+        <v>-120000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-200000000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-540000000.0</v>
+        <v>14110000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-711000000.0</v>
+        <v>14633000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3598000000.0</v>
+        <v>15369000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3688000000.0</v>
+        <v>11797000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3973000000.0</v>
+        <v>8146000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>4261000000.0</v>
